--- a/server/survey-result.xlsx
+++ b/server/survey-result.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -422,9 +422,15 @@
         <v>tendency</v>
       </c>
       <c r="G1" t="str">
-        <v>locations</v>
+        <v>location1</v>
       </c>
       <c r="H1" t="str">
+        <v>location2</v>
+      </c>
+      <c r="I1" t="str">
+        <v>location3</v>
+      </c>
+      <c r="J1" t="str">
         <v>favorites</v>
       </c>
     </row>
@@ -448,90 +454,72 @@
         <v>핫플 도시</v>
       </c>
       <c r="G2" t="str">
-        <v>["강남구"]</v>
+        <v>강남구</v>
       </c>
       <c r="H2" t="str">
+        <v>송파구</v>
+      </c>
+      <c r="I2" t="str">
+        <v>강동구</v>
+      </c>
+      <c r="J2" t="str">
         <v>강남구</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>김지호</v>
-      </c>
       <c r="B3" t="str">
         <v>20대</v>
       </c>
       <c r="C3" t="str">
-        <v>["음악"]</v>
+        <v>["맛집/쇼핑","기타"]</v>
       </c>
       <c r="D3" t="str">
         <v>여성</v>
       </c>
       <c r="F3" t="str">
-        <v>핫플 도시</v>
-      </c>
-      <c r="G3" t="str">
-        <v>{first:"강남구", second:"중구", third:"노원구"}</v>
+        <v>한적한도시</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>김지호</v>
-      </c>
       <c r="B4" t="str">
         <v>20대</v>
       </c>
       <c r="C4" t="str">
-        <v>["산책","미술","운동"]</v>
+        <v>["음악","기타"]</v>
       </c>
       <c r="D4" t="str">
         <v>여성</v>
       </c>
-      <c r="E4" t="str">
-        <v>["테니스","축구"]</v>
-      </c>
       <c r="F4" t="str">
-        <v>핫플 도시</v>
+        <v>핫플도시</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>김지호</v>
-      </c>
       <c r="B5" t="str">
         <v>20대</v>
       </c>
       <c r="C5" t="str">
-        <v>["운동","음악"]</v>
+        <v>["맛집/쇼핑"]</v>
       </c>
       <c r="D5" t="str">
         <v>여성</v>
       </c>
-      <c r="E5" t="str">
-        <v>["축구"]</v>
-      </c>
       <c r="F5" t="str">
-        <v>자연 지역</v>
+        <v>핫플도시</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
-        <v>김지호</v>
-      </c>
       <c r="B6" t="str">
         <v>20대</v>
       </c>
       <c r="C6" t="str">
-        <v>["산책","운동","음악"]</v>
+        <v>["맛집/쇼핑","기타"]</v>
       </c>
       <c r="D6" t="str">
         <v>여성</v>
       </c>
-      <c r="E6" t="str">
-        <v>["테니스","축구"]</v>
-      </c>
       <c r="F6" t="str">
-        <v>핫플 도시</v>
+        <v>핫플도시</v>
       </c>
     </row>
     <row r="7">
@@ -539,16 +527,25 @@
         <v>김지호</v>
       </c>
       <c r="B7" t="str">
-        <v>50대</v>
+        <v>20대</v>
       </c>
       <c r="C7" t="str">
-        <v>["음악","미술"]</v>
+        <v>["맛집/쇼핑"]</v>
       </c>
       <c r="D7" t="str">
         <v>여성</v>
       </c>
       <c r="F7" t="str">
-        <v>핫플 도시</v>
+        <v>핫플도시</v>
+      </c>
+      <c r="G7" t="str">
+        <v>강남구</v>
+      </c>
+      <c r="H7" t="str">
+        <v xml:space="preserve">송파구 </v>
+      </c>
+      <c r="I7" t="str">
+        <v>강동구ㄴㄴ</v>
       </c>
     </row>
     <row r="8">
@@ -556,115 +553,21 @@
         <v>김지호</v>
       </c>
       <c r="B8" t="str">
-        <v>30대</v>
+        <v>20대</v>
       </c>
       <c r="C8" t="str">
-        <v>["음악"]</v>
+        <v>["맛집/쇼핑"]</v>
       </c>
       <c r="D8" t="str">
         <v>여성</v>
       </c>
       <c r="F8" t="str">
-        <v>자연 지역</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>김지호</v>
-      </c>
-      <c r="B9" t="str">
-        <v>10대</v>
-      </c>
-      <c r="C9" t="str">
-        <v>["음악"]</v>
-      </c>
-      <c r="D9" t="str">
-        <v>여성</v>
-      </c>
-      <c r="E9" t="str">
-        <v>["볼링"]</v>
-      </c>
-      <c r="F9" t="str">
-        <v>핫플도시</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>김지호</v>
-      </c>
-      <c r="B10" t="str">
-        <v>20대</v>
-      </c>
-      <c r="C10" t="str">
-        <v>["음악","미술"]</v>
-      </c>
-      <c r="D10" t="str">
-        <v>여성</v>
-      </c>
-      <c r="E10" t="str">
-        <v>["볼링"]</v>
-      </c>
-      <c r="F10" t="str">
-        <v>핫플도시</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>김지호</v>
-      </c>
-      <c r="B11" t="str">
-        <v>50대</v>
-      </c>
-      <c r="C11" t="str">
-        <v>["산책","음악"]</v>
-      </c>
-      <c r="D11" t="str">
-        <v>남성</v>
-      </c>
-      <c r="F11" t="str">
-        <v>핫플도시</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>김지호</v>
-      </c>
-      <c r="B12" t="str">
-        <v>20대</v>
-      </c>
-      <c r="C12" t="str">
-        <v>["미술","음악","운동"]</v>
-      </c>
-      <c r="D12" t="str">
-        <v>남성</v>
-      </c>
-      <c r="E12" t="str">
-        <v>["축구","볼링"]</v>
-      </c>
-      <c r="F12" t="str">
         <v>한적한도시</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>김지호</v>
-      </c>
-      <c r="B13" t="str">
-        <v>60대 이상</v>
-      </c>
-      <c r="C13" t="str">
-        <v>["미술","음악"]</v>
-      </c>
-      <c r="D13" t="str">
-        <v>남성</v>
-      </c>
-      <c r="F13" t="str">
-        <v>자연지역</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/survey-result.xlsx
+++ b/server/survey-result.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -565,9 +565,26 @@
         <v>한적한도시</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>김지호</v>
+      </c>
+      <c r="B9" t="str">
+        <v>50대</v>
+      </c>
+      <c r="C9" t="str">
+        <v>["맛집/쇼핑","기타"]</v>
+      </c>
+      <c r="D9" t="str">
+        <v>여성</v>
+      </c>
+      <c r="F9" t="str">
+        <v>핫플도시</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J9"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/survey-result.xlsx
+++ b/server/survey-result.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -436,7 +436,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>김효정</v>
+        <v>김지호</v>
       </c>
       <c r="B2" t="str">
         <v>10대</v>
@@ -467,124 +467,25 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <v>김지호</v>
+      </c>
       <c r="B3" t="str">
         <v>20대</v>
       </c>
       <c r="C3" t="str">
-        <v>["맛집/쇼핑","기타"]</v>
+        <v>["산책"]</v>
       </c>
       <c r="D3" t="str">
         <v>여성</v>
       </c>
       <c r="F3" t="str">
-        <v>한적한도시</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="str">
-        <v>20대</v>
-      </c>
-      <c r="C4" t="str">
-        <v>["음악","기타"]</v>
-      </c>
-      <c r="D4" t="str">
-        <v>여성</v>
-      </c>
-      <c r="F4" t="str">
-        <v>핫플도시</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="str">
-        <v>20대</v>
-      </c>
-      <c r="C5" t="str">
-        <v>["맛집/쇼핑"]</v>
-      </c>
-      <c r="D5" t="str">
-        <v>여성</v>
-      </c>
-      <c r="F5" t="str">
-        <v>핫플도시</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="str">
-        <v>20대</v>
-      </c>
-      <c r="C6" t="str">
-        <v>["맛집/쇼핑","기타"]</v>
-      </c>
-      <c r="D6" t="str">
-        <v>여성</v>
-      </c>
-      <c r="F6" t="str">
-        <v>핫플도시</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>김지호</v>
-      </c>
-      <c r="B7" t="str">
-        <v>20대</v>
-      </c>
-      <c r="C7" t="str">
-        <v>["맛집/쇼핑"]</v>
-      </c>
-      <c r="D7" t="str">
-        <v>여성</v>
-      </c>
-      <c r="F7" t="str">
-        <v>핫플도시</v>
-      </c>
-      <c r="G7" t="str">
-        <v>강남구</v>
-      </c>
-      <c r="H7" t="str">
-        <v xml:space="preserve">송파구 </v>
-      </c>
-      <c r="I7" t="str">
-        <v>강동구ㄴㄴ</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>김지호</v>
-      </c>
-      <c r="B8" t="str">
-        <v>20대</v>
-      </c>
-      <c r="C8" t="str">
-        <v>["맛집/쇼핑"]</v>
-      </c>
-      <c r="D8" t="str">
-        <v>여성</v>
-      </c>
-      <c r="F8" t="str">
-        <v>한적한도시</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>김지호</v>
-      </c>
-      <c r="B9" t="str">
-        <v>50대</v>
-      </c>
-      <c r="C9" t="str">
-        <v>["맛집/쇼핑","기타"]</v>
-      </c>
-      <c r="D9" t="str">
-        <v>여성</v>
-      </c>
-      <c r="F9" t="str">
         <v>핫플도시</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/survey-result.xlsx
+++ b/server/survey-result.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -410,28 +410,31 @@
         <v>age</v>
       </c>
       <c r="C1" t="str">
+        <v>child</v>
+      </c>
+      <c r="D1" t="str">
         <v>hobby</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>sex</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>sports</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>tendency</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
+        <v>welfare</v>
+      </c>
+      <c r="I1" t="str">
         <v>location1</v>
       </c>
-      <c r="H1" t="str">
+      <c r="J1" t="str">
         <v>location2</v>
       </c>
-      <c r="I1" t="str">
+      <c r="K1" t="str">
         <v>location3</v>
-      </c>
-      <c r="J1" t="str">
-        <v>favorites</v>
       </c>
     </row>
     <row r="2">
@@ -439,31 +442,22 @@
         <v>김지호</v>
       </c>
       <c r="B2" t="str">
-        <v>10대</v>
+        <v>20대</v>
       </c>
       <c r="C2" t="str">
-        <v>["test"]</v>
+        <v>["없음"]</v>
       </c>
       <c r="D2" t="str">
-        <v>남성</v>
+        <v>["쇼핑"]</v>
       </c>
       <c r="E2" t="str">
-        <v>["test"]</v>
-      </c>
-      <c r="F2" t="str">
-        <v>핫플 도시</v>
+        <v>여성</v>
       </c>
       <c r="G2" t="str">
-        <v>강남구</v>
+        <v>힐링도시</v>
       </c>
       <c r="H2" t="str">
-        <v>송파구</v>
-      </c>
-      <c r="I2" t="str">
-        <v>강동구</v>
-      </c>
-      <c r="J2" t="str">
-        <v>강남구</v>
+        <v>["아동복지시설"]</v>
       </c>
     </row>
     <row r="3">
@@ -485,7 +479,7 @@
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/survey-result.xlsx
+++ b/server/survey-result.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -419,21 +419,33 @@
         <v>sex</v>
       </c>
       <c r="F1" t="str">
+        <v>tendency</v>
+      </c>
+      <c r="G1" t="str">
+        <v>welfare</v>
+      </c>
+      <c r="H1" t="str">
         <v>sports</v>
       </c>
-      <c r="G1" t="str">
-        <v>tendency</v>
-      </c>
-      <c r="H1" t="str">
-        <v>welfare</v>
-      </c>
       <c r="I1" t="str">
+        <v>marry</v>
+      </c>
+      <c r="J1" t="str">
+        <v>family</v>
+      </c>
+      <c r="K1" t="str">
+        <v>ten</v>
+      </c>
+      <c r="L1" t="str">
+        <v>wel</v>
+      </c>
+      <c r="M1" t="str">
         <v>location1</v>
       </c>
-      <c r="J1" t="str">
+      <c r="N1" t="str">
         <v>location2</v>
       </c>
-      <c r="K1" t="str">
+      <c r="O1" t="str">
         <v>location3</v>
       </c>
     </row>
@@ -453,10 +465,10 @@
       <c r="E2" t="str">
         <v>여성</v>
       </c>
+      <c r="F2" t="str">
+        <v>힐링도시</v>
+      </c>
       <c r="G2" t="str">
-        <v>힐링도시</v>
-      </c>
-      <c r="H2" t="str">
         <v>["아동복지시설"]</v>
       </c>
     </row>
@@ -473,13 +485,45 @@
       <c r="D3" t="str">
         <v>여성</v>
       </c>
-      <c r="F3" t="str">
+      <c r="H3" t="str">
         <v>핫플도시</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>김지호</v>
+      </c>
+      <c r="B4" t="str">
+        <v>10대이하</v>
+      </c>
+      <c r="C4" t="str">
+        <v>["중학교"]</v>
+      </c>
+      <c r="D4" t="str">
+        <v>["운동"]</v>
+      </c>
+      <c r="E4" t="str">
+        <v>여성</v>
+      </c>
+      <c r="H4" t="str">
+        <v>["농구"]</v>
+      </c>
+      <c r="I4" t="str">
+        <v>기혼</v>
+      </c>
+      <c r="J4" t="str">
+        <v>2인</v>
+      </c>
+      <c r="K4" t="str">
+        <v>자연</v>
+      </c>
+      <c r="L4" t="str">
+        <v>["아동"]</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/survey-result.xlsx
+++ b/server/survey-result.xlsx
@@ -4,6 +4,9 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -397,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -521,9 +524,664 @@
         <v>["아동"]</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>김지호</v>
+      </c>
+      <c r="B5" t="str">
+        <v>10대이하</v>
+      </c>
+      <c r="C5" t="str">
+        <v>["중학교"]</v>
+      </c>
+      <c r="D5" t="str">
+        <v>["쇼핑"]</v>
+      </c>
+      <c r="E5" t="str">
+        <v>여성</v>
+      </c>
+      <c r="I5" t="str">
+        <v>기혼</v>
+      </c>
+      <c r="J5" t="str">
+        <v>5인</v>
+      </c>
+      <c r="K5" t="str">
+        <v>핫플</v>
+      </c>
+      <c r="L5" t="str">
+        <v>["장애인"]</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>김지호</v>
+      </c>
+      <c r="B6" t="str">
+        <v>10대이하</v>
+      </c>
+      <c r="C6" t="str">
+        <v>["초등학교"]</v>
+      </c>
+      <c r="D6" t="str">
+        <v>["쇼핑"]</v>
+      </c>
+      <c r="E6" t="str">
+        <v>여성</v>
+      </c>
+      <c r="I6" t="str">
+        <v>미혼</v>
+      </c>
+      <c r="J6" t="str">
+        <v>5인</v>
+      </c>
+      <c r="K6" t="str">
+        <v>자연</v>
+      </c>
+      <c r="L6" t="str">
+        <v>["장애인"]</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>김지호</v>
+      </c>
+      <c r="B7" t="str">
+        <v>10대이하</v>
+      </c>
+      <c r="C7" t="str">
+        <v>["중학교"]</v>
+      </c>
+      <c r="D7" t="str">
+        <v>["쇼핑"]</v>
+      </c>
+      <c r="E7" t="str">
+        <v>여성</v>
+      </c>
+      <c r="I7" t="str">
+        <v>기혼</v>
+      </c>
+      <c r="J7" t="str">
+        <v>4인</v>
+      </c>
+      <c r="K7" t="str">
+        <v>핫플</v>
+      </c>
+      <c r="L7" t="str">
+        <v>["필요없음"]</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>김지호</v>
+      </c>
+      <c r="B8" t="str">
+        <v>10대이하</v>
+      </c>
+      <c r="C8" t="str">
+        <v>["중학교"]</v>
+      </c>
+      <c r="D8" t="str">
+        <v>["쇼핑"]</v>
+      </c>
+      <c r="E8" t="str">
+        <v>여성</v>
+      </c>
+      <c r="I8" t="str">
+        <v>기혼</v>
+      </c>
+      <c r="J8" t="str">
+        <v>2인</v>
+      </c>
+      <c r="K8" t="str">
+        <v>핫플</v>
+      </c>
+      <c r="L8" t="str">
+        <v>["장애인"]</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>김지호</v>
+      </c>
+      <c r="B9" t="str">
+        <v>50대</v>
+      </c>
+      <c r="C9" t="str">
+        <v>["초등학교"]</v>
+      </c>
+      <c r="D9" t="str">
+        <v>["쇼핑"]</v>
+      </c>
+      <c r="E9" t="str">
+        <v>남성</v>
+      </c>
+      <c r="I9" t="str">
+        <v>미혼</v>
+      </c>
+      <c r="J9" t="str">
+        <v>4인</v>
+      </c>
+      <c r="K9" t="str">
+        <v>핫플</v>
+      </c>
+      <c r="L9" t="str">
+        <v>["장애인"]</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O9"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>안전</v>
+      </c>
+      <c r="C1" t="str">
+        <v>생활시설</v>
+      </c>
+      <c r="D1" t="str">
+        <v>교육</v>
+      </c>
+      <c r="E1" t="str">
+        <v>의료</v>
+      </c>
+      <c r="F1" t="str">
+        <v>환경</v>
+      </c>
+      <c r="G1" t="str">
+        <v>교통</v>
+      </c>
+      <c r="H1" t="str">
+        <v>기타</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v/>
+      </c>
+      <c r="B2" t="str">
+        <v/>
+      </c>
+      <c r="C2" t="str">
+        <v/>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>김지호</v>
+      </c>
+      <c r="B3" t="str">
+        <v>1</v>
+      </c>
+      <c r="C3" t="str">
+        <v>2</v>
+      </c>
+      <c r="D3" t="str">
+        <v>3</v>
+      </c>
+      <c r="E3" t="str">
+        <v>4</v>
+      </c>
+      <c r="F3" t="str">
+        <v>5</v>
+      </c>
+      <c r="G3" t="str">
+        <v>6</v>
+      </c>
+      <c r="H3" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>김지호</v>
+      </c>
+      <c r="B4" t="str">
+        <v>1</v>
+      </c>
+      <c r="C4" t="str">
+        <v>2</v>
+      </c>
+      <c r="D4" t="str">
+        <v>3</v>
+      </c>
+      <c r="E4" t="str">
+        <v>4</v>
+      </c>
+      <c r="F4" t="str">
+        <v>5</v>
+      </c>
+      <c r="G4" t="str">
+        <v>6</v>
+      </c>
+      <c r="H4" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>김지호</v>
+      </c>
+      <c r="B5" t="str">
+        <v>4</v>
+      </c>
+      <c r="C5" t="str">
+        <v>3</v>
+      </c>
+      <c r="D5" t="str">
+        <v>2</v>
+      </c>
+      <c r="E5" t="str">
+        <v>1</v>
+      </c>
+      <c r="F5" t="str">
+        <v>5</v>
+      </c>
+      <c r="G5" t="str">
+        <v>6</v>
+      </c>
+      <c r="H5" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>김지호</v>
+      </c>
+      <c r="B6" t="str">
+        <v>7</v>
+      </c>
+      <c r="C6" t="str">
+        <v>6</v>
+      </c>
+      <c r="D6" t="str">
+        <v>5</v>
+      </c>
+      <c r="E6" t="str">
+        <v>1</v>
+      </c>
+      <c r="F6" t="str">
+        <v>2</v>
+      </c>
+      <c r="G6" t="str">
+        <v>3</v>
+      </c>
+      <c r="H6" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>김지호</v>
+      </c>
+      <c r="B7" t="str">
+        <v>2</v>
+      </c>
+      <c r="C7" t="str">
+        <v>3</v>
+      </c>
+      <c r="D7" t="str">
+        <v>4</v>
+      </c>
+      <c r="E7" t="str">
+        <v>1</v>
+      </c>
+      <c r="F7" t="str">
+        <v>5</v>
+      </c>
+      <c r="G7" t="str">
+        <v>6</v>
+      </c>
+      <c r="H7" t="str">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:H7"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>광역버스</v>
+      </c>
+      <c r="C1" t="str">
+        <v>기차</v>
+      </c>
+      <c r="D1" t="str">
+        <v>따릉이</v>
+      </c>
+      <c r="E1" t="str">
+        <v>시내버스</v>
+      </c>
+      <c r="F1" t="str">
+        <v>자차</v>
+      </c>
+      <c r="G1" t="str">
+        <v>지하철</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Intercity Bus</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Train</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Bike Sharing</v>
+      </c>
+      <c r="E2" t="str">
+        <v>City Bus</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Own Car</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Subway</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>김지호</v>
+      </c>
+      <c r="B3" t="str">
+        <v>5</v>
+      </c>
+      <c r="C3" t="str">
+        <v>4</v>
+      </c>
+      <c r="D3" t="str">
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
+        <v>0</v>
+      </c>
+      <c r="F3" t="str">
+        <v>0</v>
+      </c>
+      <c r="G3" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>김지호</v>
+      </c>
+      <c r="B4" t="str">
+        <v>0</v>
+      </c>
+      <c r="C4" t="str">
+        <v>5</v>
+      </c>
+      <c r="D4" t="str">
+        <v>0</v>
+      </c>
+      <c r="E4" t="str">
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
+        <v>0</v>
+      </c>
+      <c r="G4" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>김지호</v>
+      </c>
+      <c r="B5" t="str">
+        <v>5</v>
+      </c>
+      <c r="C5" t="str">
+        <v>4</v>
+      </c>
+      <c r="D5" t="str">
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
+        <v>0</v>
+      </c>
+      <c r="F5" t="str">
+        <v>0</v>
+      </c>
+      <c r="G5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>김지호</v>
+      </c>
+      <c r="B6" t="str">
+        <v>5</v>
+      </c>
+      <c r="C6" t="str">
+        <v>0</v>
+      </c>
+      <c r="D6" t="str">
+        <v>0</v>
+      </c>
+      <c r="E6" t="str">
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
+        <v>0</v>
+      </c>
+      <c r="G6" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>김지호</v>
+      </c>
+      <c r="B7" t="str">
+        <v>5</v>
+      </c>
+      <c r="C7" t="str">
+        <v>4</v>
+      </c>
+      <c r="D7" t="str">
+        <v>0</v>
+      </c>
+      <c r="E7" t="str">
+        <v>0</v>
+      </c>
+      <c r="F7" t="str">
+        <v>0</v>
+      </c>
+      <c r="G7" t="str">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:G7"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>공원</v>
+      </c>
+      <c r="C1" t="str">
+        <v>미세먼지</v>
+      </c>
+      <c r="D1" t="str">
+        <v>소음</v>
+      </c>
+      <c r="E1" t="str">
+        <v>주택침수</v>
+      </c>
+      <c r="F1" t="str">
+        <v>풍수해</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Park</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Fine Dust</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Noise</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Flood in Housing</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Wind and Water Damage</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>김지호</v>
+      </c>
+      <c r="B3" t="str">
+        <v>0</v>
+      </c>
+      <c r="C3" t="str">
+        <v>5</v>
+      </c>
+      <c r="D3" t="str">
+        <v>4</v>
+      </c>
+      <c r="F3" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>김지호</v>
+      </c>
+      <c r="B4" t="str">
+        <v>0</v>
+      </c>
+      <c r="C4" t="str">
+        <v>0</v>
+      </c>
+      <c r="D4" t="str">
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>김지호</v>
+      </c>
+      <c r="B5" t="str">
+        <v>5</v>
+      </c>
+      <c r="C5" t="str">
+        <v>0</v>
+      </c>
+      <c r="D5" t="str">
+        <v>4</v>
+      </c>
+      <c r="F5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>김지호</v>
+      </c>
+      <c r="B6" t="str">
+        <v>0</v>
+      </c>
+      <c r="C6" t="str">
+        <v>0</v>
+      </c>
+      <c r="D6" t="str">
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>김지호</v>
+      </c>
+      <c r="B7" t="str">
+        <v>0</v>
+      </c>
+      <c r="C7" t="str">
+        <v>0</v>
+      </c>
+      <c r="D7" t="str">
+        <v>0</v>
+      </c>
+      <c r="F7" t="str">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F7"/>
   </ignoredErrors>
 </worksheet>
 </file>